--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T08:40:37+00:00</t>
+    <t>2024-11-08T09:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:19:42+00:00</t>
+    <t>2024-11-08T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:23:40+00:00</t>
+    <t>2024-11-08T09:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:24:53+00:00</t>
+    <t>2024-11-08T09:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:31:49+00:00</t>
+    <t>2024-11-08T09:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:50:44+00:00</t>
+    <t>2024-11-08T09:51:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:51:03+00:00</t>
+    <t>2024-11-08T10:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T10:35:07+00:00</t>
+    <t>2024-11-08T10:36:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T10:36:59+00:00</t>
+    <t>2024-11-08T10:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T10:43:03+00:00</t>
+    <t>2024-11-08T10:45:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T10:45:09+00:00</t>
+    <t>2024-11-08T11:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T11:05:20+00:00</t>
+    <t>2024-11-08T14:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T14:08:54+00:00</t>
+    <t>2024-11-08T14:49:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T14:49:06+00:00</t>
+    <t>2024-11-08T16:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:03:57+00:00</t>
+    <t>2024-11-08T16:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:15:10+00:00</t>
+    <t>2024-11-14T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:34:05+00:00</t>
+    <t>2024-11-14T08:45:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:45:07+00:00</t>
+    <t>2024-11-14T08:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/nr-add-doctrine/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:48:58+00:00</t>
+    <t>2024-11-14T08:50:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
